--- a/Figures/tab_MOIs_edited.xlsx
+++ b/Figures/tab_MOIs_edited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ataylor/Documents/PvMolCorrection/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227EFB4D-ABA7-084D-9458-F4423AA02E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47056DD0-65CB-D142-8A26-2EDD47BC4D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23520" yWindow="660" windowWidth="38080" windowHeight="19540" xr2:uid="{6F35EB55-D944-1044-97E2-1A8804885C73}"/>
   </bookViews>
@@ -793,11 +793,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -815,6 +812,12 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1193,13 +1196,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D407296D-B23B-7C48-B140-1C96D6DDA1F1}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="14" customWidth="1"/>
     <col min="17" max="17" width="13.5" customWidth="1"/>
     <col min="18" max="18" width="13.6640625" customWidth="1"/>
     <col min="19" max="19" width="6.5" customWidth="1"/>
@@ -1208,42 +1211,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="13" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="T1" s="12"/>
+      <c r="U1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+      <c r="A2" s="13"/>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1289,20 +1292,20 @@
       <c r="P2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
@@ -1350,18 +1353,18 @@
       <c r="R3">
         <v>3</v>
       </c>
-      <c r="S3" s="10"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="5"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
       <c r="D4" t="s">
@@ -1409,18 +1412,18 @@
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="5"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" t="s">
@@ -1468,18 +1471,18 @@
       <c r="R5">
         <v>7</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="5"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
       <c r="D6" t="s">
@@ -1527,12 +1530,12 @@
       <c r="R6">
         <v>9</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="5"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B7">
@@ -1586,18 +1589,18 @@
       <c r="R7">
         <v>3</v>
       </c>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2</v>
       </c>
       <c r="D8">
@@ -1645,12 +1648,12 @@
       <c r="R8">
         <v>3</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="5"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B9">
@@ -1704,12 +1707,12 @@
       <c r="R9">
         <v>4</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B10">
@@ -1763,12 +1766,12 @@
       <c r="R10">
         <v>4</v>
       </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B11">
@@ -1822,12 +1825,12 @@
       <c r="R11">
         <v>4</v>
       </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B12">
@@ -1881,12 +1884,12 @@
       <c r="R12">
         <v>4</v>
       </c>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B13">
@@ -1940,12 +1943,12 @@
       <c r="R13">
         <v>4</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
@@ -1999,12 +2002,12 @@
       <c r="R14">
         <v>4</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="4"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B15">
@@ -2058,12 +2061,12 @@
       <c r="R15">
         <v>4</v>
       </c>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="4"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B16">
@@ -2117,12 +2120,12 @@
       <c r="R16">
         <v>4</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B17">
@@ -2176,12 +2179,12 @@
       <c r="R17">
         <v>5</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="4"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B18">
@@ -2235,12 +2238,12 @@
       <c r="R18">
         <v>5</v>
       </c>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B19">
@@ -2294,12 +2297,12 @@
       <c r="R19">
         <v>5</v>
       </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B20">
@@ -2353,12 +2356,12 @@
       <c r="R20">
         <v>5</v>
       </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B21">
@@ -2412,12 +2415,12 @@
       <c r="R21">
         <v>5</v>
       </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B22">
@@ -2471,12 +2474,12 @@
       <c r="R22">
         <v>5</v>
       </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="4"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B23">
@@ -2530,12 +2533,12 @@
       <c r="R23">
         <v>5</v>
       </c>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="4"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B24">
@@ -2589,12 +2592,12 @@
       <c r="R24">
         <v>5</v>
       </c>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="7"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B25">
@@ -2648,12 +2651,12 @@
       <c r="R25">
         <v>5</v>
       </c>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="7"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="6"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B26">
@@ -2707,12 +2710,12 @@
       <c r="R26">
         <v>6</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="4"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B27">
@@ -2766,12 +2769,12 @@
       <c r="R27">
         <v>6</v>
       </c>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B28">
@@ -2825,12 +2828,12 @@
       <c r="R28">
         <v>6</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B29">
@@ -2884,12 +2887,12 @@
       <c r="R29">
         <v>6</v>
       </c>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B30">
@@ -2943,12 +2946,12 @@
       <c r="R30">
         <v>6</v>
       </c>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="7"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="6"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="14" t="s">
         <v>49</v>
       </c>
       <c r="B31">
@@ -3002,12 +3005,12 @@
       <c r="R31">
         <v>6</v>
       </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="7"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="6"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B32">
@@ -3061,12 +3064,12 @@
       <c r="R32">
         <v>6</v>
       </c>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="7"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="6"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B33">
@@ -3120,12 +3123,12 @@
       <c r="R33">
         <v>7</v>
       </c>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="4"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B34">
@@ -3179,12 +3182,12 @@
       <c r="R34">
         <v>7</v>
       </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="4"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B35">
@@ -3238,12 +3241,12 @@
       <c r="R35">
         <v>7</v>
       </c>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="4"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B36">
@@ -3297,12 +3300,12 @@
       <c r="R36">
         <v>7</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="4"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B37">
@@ -3356,12 +3359,12 @@
       <c r="R37">
         <v>7</v>
       </c>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="4"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B38">
@@ -3415,12 +3418,12 @@
       <c r="R38">
         <v>8</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="4"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B39">
@@ -3474,12 +3477,12 @@
       <c r="R39">
         <v>8</v>
       </c>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="7"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="6"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="14" t="s">
         <v>58</v>
       </c>
       <c r="B40">
@@ -3533,12 +3536,12 @@
       <c r="R40">
         <v>8</v>
       </c>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="4"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B41">
@@ -3592,12 +3595,12 @@
       <c r="R41">
         <v>8</v>
       </c>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="4"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B42">
@@ -3651,12 +3654,12 @@
       <c r="R42">
         <v>8</v>
       </c>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="4"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B43">
@@ -3710,12 +3713,12 @@
       <c r="R43">
         <v>8</v>
       </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="7"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B44">
@@ -3769,12 +3772,12 @@
       <c r="R44">
         <v>8</v>
       </c>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="7"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="6"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="14" t="s">
         <v>63</v>
       </c>
       <c r="B45">
@@ -3828,12 +3831,12 @@
       <c r="R45">
         <v>8</v>
       </c>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="7"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="6"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B46">
@@ -3887,12 +3890,12 @@
       <c r="R46">
         <v>8</v>
       </c>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="7"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="6"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B47">
@@ -3946,12 +3949,12 @@
       <c r="R47">
         <v>8</v>
       </c>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="7"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="6"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B48">
@@ -4005,12 +4008,12 @@
       <c r="R48">
         <v>9</v>
       </c>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="7"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="6"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B49">
@@ -4064,12 +4067,12 @@
       <c r="R49">
         <v>9</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="7"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="6"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B50">
@@ -4123,12 +4126,12 @@
       <c r="R50">
         <v>9</v>
       </c>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="7"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="6"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B51">
@@ -4182,12 +4185,12 @@
       <c r="R51">
         <v>9</v>
       </c>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="7"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="6"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B52">
@@ -4241,18 +4244,18 @@
       <c r="R52">
         <v>9</v>
       </c>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="7"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="6"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>3</v>
       </c>
       <c r="D53">
@@ -4300,12 +4303,12 @@
       <c r="R53">
         <v>9</v>
       </c>
-      <c r="S53" s="9"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="7"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="6"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B54">
@@ -4359,12 +4362,12 @@
       <c r="R54">
         <v>10</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="7"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="6"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B55">
@@ -4418,12 +4421,12 @@
       <c r="R55">
         <v>10</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="7"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="6"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B56">
@@ -4477,12 +4480,12 @@
       <c r="R56">
         <v>10</v>
       </c>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="7"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="6"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B57">
@@ -4536,12 +4539,12 @@
       <c r="R57">
         <v>10</v>
       </c>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="7"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="6"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B58">
@@ -4595,12 +4598,12 @@
       <c r="R58">
         <v>10</v>
       </c>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="7"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="6"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B59">
@@ -4654,12 +4657,12 @@
       <c r="R59">
         <v>11</v>
       </c>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="7"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="6"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B60">
@@ -4713,9 +4716,9 @@
       <c r="R60">
         <v>14</v>
       </c>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="7"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="62">

--- a/Figures/tab_MOIs_edited.xlsx
+++ b/Figures/tab_MOIs_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ataylor/Documents/PvMolCorrection/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{60EF5D70-00FC-3142-AE54-E7C226290F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F018B57F-2C7C-D740-872C-F88DBF566F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="500" windowWidth="37460" windowHeight="19840" xr2:uid="{C38C7C08-B65B-444B-A243-889EF7BF4B18}"/>
+    <workbookView xWindow="23360" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C38C7C08-B65B-444B-A243-889EF7BF4B18}"/>
   </bookViews>
   <sheets>
     <sheet name="tab_MOIs_edited" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -738,6 +738,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -783,7 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +826,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1195,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B06858-4ADD-8748-A4B4-48F3DA5B81DB}">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14:U14"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1296,9 +1308,9 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="13"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">

--- a/Figures/tab_MOIs_edited.xlsx
+++ b/Figures/tab_MOIs_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ataylor/Documents/PvMolCorrection/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F018B57F-2C7C-D740-872C-F88DBF566F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1269D2F1-BA22-9645-B416-59E6389CABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23360" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{C38C7C08-B65B-444B-A243-889EF7BF4B18}"/>
+    <workbookView xWindow="25520" yWindow="500" windowWidth="38400" windowHeight="19860" xr2:uid="{C38C7C08-B65B-444B-A243-889EF7BF4B18}"/>
   </bookViews>
   <sheets>
     <sheet name="tab_MOIs_edited" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="83">
   <si>
     <t>Participant identifier</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>AS</t>
-  </si>
-  <si>
-    <t>VHX_214</t>
   </si>
   <si>
     <t>CHQ/PMQ</t>
@@ -801,34 +798,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1205,10 +1202,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B06858-4ADD-8748-A4B4-48F3DA5B81DB}">
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
+      <extLst>
+        <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
+          <xlsdti:showDataTypeIcons visible="0"/>
+        </ext>
+      </extLst>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,93 +1226,93 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="S1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
       <c r="S2" s="13"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1319,7 +1321,7 @@
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1370,19 +1372,19 @@
       <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -1421,7 +1423,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q4" s="1">
         <v>3</v>
@@ -1430,77 +1432,77 @@
         <v>3</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="1">
-        <v>8</v>
-      </c>
       <c r="Q5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -1554,11 +1556,11 @@
         <v>4</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
@@ -1616,18 +1618,18 @@
         <v>4</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -1669,7 +1671,7 @@
         <v>23</v>
       </c>
       <c r="P8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="1">
         <v>4</v>
@@ -1678,21 +1680,21 @@
         <v>4</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1740,27 +1742,27 @@
         <v>4</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>23</v>
@@ -1793,7 +1795,7 @@
         <v>23</v>
       </c>
       <c r="P10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="1">
         <v>4</v>
@@ -1802,11 +1804,11 @@
         <v>4</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1816,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1855,7 +1857,7 @@
         <v>23</v>
       </c>
       <c r="P11" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q11" s="1">
         <v>4</v>
@@ -1864,18 +1866,18 @@
         <v>4</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1884,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
@@ -1926,11 +1928,11 @@
         <v>4</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
@@ -1939,14 +1941,14 @@
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
@@ -1979,39 +1981,39 @@
         <v>23</v>
       </c>
       <c r="P13" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="9"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
-      </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>23</v>
@@ -2041,20 +2043,20 @@
         <v>23</v>
       </c>
       <c r="P14" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R14" s="1">
         <v>5</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -2112,11 +2114,11 @@
         <v>5</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="6"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
@@ -2174,11 +2176,11 @@
         <v>5</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="6"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
@@ -2236,18 +2238,18 @@
         <v>5</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="6"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -2289,7 +2291,7 @@
         <v>23</v>
       </c>
       <c r="P18" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="1">
         <v>5</v>
@@ -2298,11 +2300,11 @@
         <v>5</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="6"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -2360,18 +2362,18 @@
         <v>5</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="6"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -2383,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>23</v>
@@ -2413,7 +2415,7 @@
         <v>23</v>
       </c>
       <c r="P20" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q20" s="1">
         <v>5</v>
@@ -2422,27 +2424,27 @@
         <v>5</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="6"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1">
         <v>2</v>
@@ -2475,7 +2477,7 @@
         <v>23</v>
       </c>
       <c r="P21" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="1">
         <v>5</v>
@@ -2484,21 +2486,21 @@
         <v>5</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="7"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -2507,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>23</v>
@@ -2537,7 +2539,7 @@
         <v>23</v>
       </c>
       <c r="P22" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1">
         <v>5</v>
@@ -2546,27 +2548,27 @@
         <v>5</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="7"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2599,20 +2601,20 @@
         <v>23</v>
       </c>
       <c r="P23" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q23" s="1">
         <v>5</v>
       </c>
       <c r="R23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="6"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -2670,11 +2672,11 @@
         <v>6</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="6"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -2695,8 +2697,8 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
+      <c r="G25" s="1">
+        <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>23</v>
@@ -2723,27 +2725,27 @@
         <v>23</v>
       </c>
       <c r="P25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R25" s="1">
         <v>6</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="6"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -2752,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2785,7 +2787,7 @@
         <v>23</v>
       </c>
       <c r="P26" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q26" s="1">
         <v>6</v>
@@ -2794,11 +2796,11 @@
         <v>6</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="6"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
@@ -2817,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -2847,7 +2849,7 @@
         <v>23</v>
       </c>
       <c r="P27" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q27" s="1">
         <v>6</v>
@@ -2856,11 +2858,11 @@
         <v>6</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="7"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
@@ -2918,11 +2920,11 @@
         <v>6</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="7"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -2935,13 +2937,13 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -2971,7 +2973,7 @@
         <v>23</v>
       </c>
       <c r="P29" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="1">
         <v>6</v>
@@ -2980,33 +2982,33 @@
         <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="7"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
         <v>3</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
+      <c r="C30" s="5">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>23</v>
@@ -3033,42 +3035,42 @@
         <v>23</v>
       </c>
       <c r="P30" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q30" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R30" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T30" s="10"/>
       <c r="U30" s="10"/>
-      <c r="V30" s="11"/>
+      <c r="V30" s="6"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>23</v>
@@ -3098,27 +3100,27 @@
         <v>7</v>
       </c>
       <c r="Q31" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R31" s="1">
         <v>7</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="6"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -3130,10 +3132,10 @@
         <v>1</v>
       </c>
       <c r="G32" s="1">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>23</v>
@@ -3160,17 +3162,17 @@
         <v>7</v>
       </c>
       <c r="Q32" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R32" s="1">
         <v>7</v>
       </c>
       <c r="S32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="6"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
@@ -3228,11 +3230,11 @@
         <v>7</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -3248,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
@@ -3281,7 +3283,7 @@
         <v>23</v>
       </c>
       <c r="P34" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="1">
         <v>7</v>
@@ -3290,11 +3292,11 @@
         <v>7</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="6"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
@@ -3310,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -3319,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>23</v>
@@ -3352,11 +3354,11 @@
         <v>7</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="6"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -3369,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>23</v>
@@ -3408,42 +3410,42 @@
         <v>8</v>
       </c>
       <c r="Q36" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R36" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="6"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <v>2</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>23</v>
+      <c r="F37" s="1">
+        <v>2</v>
       </c>
       <c r="G37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>23</v>
@@ -3467,48 +3469,48 @@
         <v>23</v>
       </c>
       <c r="P37" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q37" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R37" s="1">
         <v>8</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="7"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>23</v>
@@ -3529,20 +3531,20 @@
         <v>23</v>
       </c>
       <c r="P38" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q38" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R38" s="1">
         <v>8</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="6"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
@@ -3600,11 +3602,11 @@
         <v>8</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="6"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
@@ -3662,11 +3664,11 @@
         <v>8</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="6"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -3685,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -3715,7 +3717,7 @@
         <v>23</v>
       </c>
       <c r="P41" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q41" s="1">
         <v>8</v>
@@ -3724,30 +3726,30 @@
         <v>8</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="7"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -3777,7 +3779,7 @@
         <v>23</v>
       </c>
       <c r="P42" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q42" s="1">
         <v>8</v>
@@ -3786,24 +3788,24 @@
         <v>8</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="7"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1">
         <v>2</v>
@@ -3815,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="H43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -3848,18 +3850,18 @@
         <v>8</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="7"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -3868,10 +3870,10 @@
         <v>2</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -3901,7 +3903,7 @@
         <v>23</v>
       </c>
       <c r="P44" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q44" s="1">
         <v>8</v>
@@ -3910,11 +3912,11 @@
         <v>8</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="7"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
@@ -3924,16 +3926,16 @@
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -3963,7 +3965,7 @@
         <v>23</v>
       </c>
       <c r="P45" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q45" s="1">
         <v>8</v>
@@ -3972,11 +3974,11 @@
         <v>8</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="7"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -3985,26 +3987,26 @@
       <c r="B46" s="1">
         <v>3</v>
       </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
+      <c r="C46" s="5">
         <v>3</v>
       </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>2</v>
-      </c>
-      <c r="I46" s="1">
-        <v>1</v>
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>23</v>
@@ -4025,51 +4027,51 @@
         <v>23</v>
       </c>
       <c r="P46" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q46" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R46" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="T46" s="10"/>
       <c r="U46" s="10"/>
-      <c r="V46" s="11"/>
+      <c r="V46" s="6"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>23</v>
@@ -4087,20 +4089,20 @@
         <v>23</v>
       </c>
       <c r="P47" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q47" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R47" s="1">
         <v>9</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T47" s="8"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="7"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
@@ -4122,13 +4124,13 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1">
         <v>1</v>
@@ -4149,7 +4151,7 @@
         <v>23</v>
       </c>
       <c r="P48" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q48" s="1">
         <v>9</v>
@@ -4158,39 +4160,39 @@
         <v>9</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="7"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
       <c r="G49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" s="1">
         <v>1</v>
@@ -4211,7 +4213,7 @@
         <v>23</v>
       </c>
       <c r="P49" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q49" s="1">
         <v>9</v>
@@ -4220,11 +4222,11 @@
         <v>9</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="7"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
@@ -4237,7 +4239,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1">
         <v>2</v>
@@ -4246,13 +4248,13 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" s="1">
         <v>1</v>
       </c>
       <c r="I50" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="1">
         <v>1</v>
@@ -4273,7 +4275,7 @@
         <v>23</v>
       </c>
       <c r="P50" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q50" s="1">
         <v>9</v>
@@ -4282,11 +4284,11 @@
         <v>9</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="7"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
@@ -4305,16 +4307,16 @@
         <v>2</v>
       </c>
       <c r="F51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
       </c>
       <c r="H51" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" s="1">
         <v>1</v>
@@ -4335,7 +4337,7 @@
         <v>23</v>
       </c>
       <c r="P51" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q51" s="1">
         <v>9</v>
@@ -4344,36 +4346,36 @@
         <v>9</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="7"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="5">
+        <v>3</v>
       </c>
       <c r="D52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -4397,7 +4399,7 @@
         <v>23</v>
       </c>
       <c r="P52" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q52" s="1">
         <v>9</v>
@@ -4406,36 +4408,36 @@
         <v>9</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T52" s="8"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="7"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B53" s="1">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1">
         <v>1</v>
       </c>
       <c r="F53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -4443,8 +4445,8 @@
       <c r="J53" s="1">
         <v>1</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>23</v>
+      <c r="K53" s="1">
+        <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>23</v>
@@ -4459,20 +4461,20 @@
         <v>23</v>
       </c>
       <c r="P53" s="1">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q53" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R53" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T53" s="12"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="7"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
@@ -4485,7 +4487,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>1</v>
@@ -4494,7 +4496,7 @@
         <v>2</v>
       </c>
       <c r="G54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" s="1">
         <v>1</v>
@@ -4506,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>23</v>
@@ -4521,7 +4523,7 @@
         <v>23</v>
       </c>
       <c r="P54" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q54" s="1">
         <v>10</v>
@@ -4530,11 +4532,11 @@
         <v>10</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="7"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
@@ -4544,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="1">
         <v>1</v>
@@ -4556,10 +4558,10 @@
         <v>2</v>
       </c>
       <c r="G55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -4568,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>23</v>
@@ -4583,7 +4585,7 @@
         <v>23</v>
       </c>
       <c r="P55" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q55" s="1">
         <v>10</v>
@@ -4592,11 +4594,11 @@
         <v>10</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="7"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
@@ -4606,19 +4608,19 @@
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <v>2</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" s="1">
         <v>2</v>
       </c>
       <c r="G56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="1">
         <v>2</v>
@@ -4627,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
@@ -4645,7 +4647,7 @@
         <v>23</v>
       </c>
       <c r="P56" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q56" s="1">
         <v>10</v>
@@ -4654,36 +4656,36 @@
         <v>10</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="7"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="1">
         <v>2</v>
       </c>
       <c r="F57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1">
         <v>2</v>
       </c>
       <c r="H57" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -4692,7 +4694,7 @@
         <v>2</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>23</v>
@@ -4707,7 +4709,7 @@
         <v>23</v>
       </c>
       <c r="P57" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q57" s="1">
         <v>10</v>
@@ -4716,11 +4718,11 @@
         <v>10</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="7"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
@@ -4733,13 +4735,13 @@
         <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="1">
         <v>2</v>
@@ -4751,13 +4753,13 @@
         <v>1</v>
       </c>
       <c r="J58" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
-        <v>3</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
+      </c>
+      <c r="L58" s="1">
+        <v>1</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>23</v>
@@ -4769,27 +4771,27 @@
         <v>23</v>
       </c>
       <c r="P58" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q58" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R58" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="7"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B59" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -4801,16 +4803,16 @@
         <v>1</v>
       </c>
       <c r="F59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
         <v>1</v>
       </c>
       <c r="I59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" s="1">
         <v>1</v>
@@ -4819,161 +4821,99 @@
         <v>1</v>
       </c>
       <c r="L59" s="1">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
       </c>
       <c r="P59" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="1">
         <v>14</v>
       </c>
-      <c r="Q59" s="1">
-        <v>11</v>
-      </c>
       <c r="R59" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="11"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>1</v>
-      </c>
-      <c r="G60" s="1">
-        <v>1</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2</v>
-      </c>
-      <c r="J60" s="1">
-        <v>1</v>
-      </c>
-      <c r="K60" s="1">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1">
-        <v>2</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1">
-        <v>1</v>
-      </c>
-      <c r="P60" s="1">
-        <v>18</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>14</v>
-      </c>
-      <c r="R60" s="1">
-        <v>14</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="T48:U48"/>
+  <mergeCells count="62">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="T36:U36"/>
     <mergeCell ref="T49:U49"/>
-    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T38:U38"/>
     <mergeCell ref="T39:U39"/>
     <mergeCell ref="T40:U40"/>
     <mergeCell ref="T41:U41"/>
     <mergeCell ref="T42:U42"/>
     <mergeCell ref="T43:U43"/>
     <mergeCell ref="T44:U44"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="T46:U46"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="T56:U56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>